--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.437669333333333</v>
+        <v>4.668540666666667</v>
       </c>
       <c r="H2">
-        <v>16.313008</v>
+        <v>14.005622</v>
       </c>
       <c r="I2">
-        <v>0.1447143613315609</v>
+        <v>0.1221398332152395</v>
       </c>
       <c r="J2">
-        <v>0.144714361331561</v>
+        <v>0.1221398332152396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.644332</v>
+        <v>1.465773</v>
       </c>
       <c r="N2">
-        <v>1.932996</v>
+        <v>4.397319</v>
       </c>
       <c r="O2">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287053</v>
       </c>
       <c r="P2">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287054</v>
       </c>
       <c r="Q2">
-        <v>3.503664356885333</v>
+        <v>6.843020858601999</v>
       </c>
       <c r="R2">
-        <v>31.532979211968</v>
+        <v>61.587187727418</v>
       </c>
       <c r="S2">
-        <v>0.00502015631318876</v>
+        <v>0.005198047836173748</v>
       </c>
       <c r="T2">
-        <v>0.005020156313188762</v>
+        <v>0.00519804783617375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.437669333333333</v>
+        <v>4.668540666666667</v>
       </c>
       <c r="H3">
-        <v>16.313008</v>
+        <v>14.005622</v>
       </c>
       <c r="I3">
-        <v>0.1447143613315609</v>
+        <v>0.1221398332152395</v>
       </c>
       <c r="J3">
-        <v>0.144714361331561</v>
+        <v>0.1221398332152396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.025232</v>
       </c>
       <c r="O3">
-        <v>0.4670563296497797</v>
+        <v>0.2518776232723828</v>
       </c>
       <c r="P3">
-        <v>0.4670563296497798</v>
+        <v>0.2518776232723829</v>
       </c>
       <c r="Q3">
-        <v>47.17220197976177</v>
+        <v>40.49995131714488</v>
       </c>
       <c r="R3">
-        <v>424.549817817856</v>
+        <v>364.499561854304</v>
       </c>
       <c r="S3">
-        <v>0.06758975845113085</v>
+        <v>0.03076429089713978</v>
       </c>
       <c r="T3">
-        <v>0.06758975845113088</v>
+        <v>0.03076429089713979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.437669333333333</v>
+        <v>4.668540666666667</v>
       </c>
       <c r="H4">
-        <v>16.313008</v>
+        <v>14.005622</v>
       </c>
       <c r="I4">
-        <v>0.1447143613315609</v>
+        <v>0.1221398332152395</v>
       </c>
       <c r="J4">
-        <v>0.144714361331561</v>
+        <v>0.1221398332152396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.103747333333333</v>
+        <v>3.352351333333333</v>
       </c>
       <c r="N4">
-        <v>3.311242</v>
+        <v>10.057054</v>
       </c>
       <c r="O4">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069202</v>
       </c>
       <c r="P4">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069205</v>
       </c>
       <c r="Q4">
-        <v>6.001813026215111</v>
+        <v>15.65058852862089</v>
       </c>
       <c r="R4">
-        <v>54.016317235936</v>
+        <v>140.855296757588</v>
       </c>
       <c r="S4">
-        <v>0.00859957932183811</v>
+        <v>0.01188839103621605</v>
       </c>
       <c r="T4">
-        <v>0.008599579321838111</v>
+        <v>0.01188839103621606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.437669333333333</v>
+        <v>4.668540666666667</v>
       </c>
       <c r="H5">
-        <v>16.313008</v>
+        <v>14.005622</v>
       </c>
       <c r="I5">
-        <v>0.1447143613315609</v>
+        <v>0.1221398332152395</v>
       </c>
       <c r="J5">
-        <v>0.144714361331561</v>
+        <v>0.1221398332152396</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.890366333333334</v>
+        <v>10.935394</v>
       </c>
       <c r="N5">
-        <v>17.671099</v>
+        <v>32.806182</v>
       </c>
       <c r="O5">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474392</v>
       </c>
       <c r="P5">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474393</v>
       </c>
       <c r="Q5">
-        <v>32.02986437286578</v>
+        <v>51.05233159502267</v>
       </c>
       <c r="R5">
-        <v>288.268779355792</v>
+        <v>459.470984355204</v>
       </c>
       <c r="S5">
-        <v>0.04589335891322775</v>
+        <v>0.03878001649601091</v>
       </c>
       <c r="T5">
-        <v>0.04589335891322777</v>
+        <v>0.03878001649601092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.437669333333333</v>
+        <v>4.668540666666667</v>
       </c>
       <c r="H6">
-        <v>16.313008</v>
+        <v>14.005622</v>
       </c>
       <c r="I6">
-        <v>0.1447143613315609</v>
+        <v>0.1221398332152395</v>
       </c>
       <c r="J6">
-        <v>0.144714361331561</v>
+        <v>0.1221398332152396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.260419333333334</v>
+        <v>10.01304</v>
       </c>
       <c r="N6">
-        <v>6.781258</v>
+        <v>30.03912</v>
       </c>
       <c r="O6">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966152</v>
       </c>
       <c r="P6">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966153</v>
       </c>
       <c r="Q6">
-        <v>12.29141288934044</v>
+        <v>46.74628443696</v>
       </c>
       <c r="R6">
-        <v>110.622716004064</v>
+        <v>420.7165599326401</v>
       </c>
       <c r="S6">
-        <v>0.01761150833217544</v>
+        <v>0.03550908694969903</v>
       </c>
       <c r="T6">
-        <v>0.01761150833217544</v>
+        <v>0.03550908694969904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>73.410133</v>
       </c>
       <c r="I7">
-        <v>0.6512287931422547</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="J7">
-        <v>0.6512287931422548</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.644332</v>
+        <v>1.465773</v>
       </c>
       <c r="N7">
-        <v>1.932996</v>
+        <v>4.397319</v>
       </c>
       <c r="O7">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287053</v>
       </c>
       <c r="P7">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287054</v>
       </c>
       <c r="Q7">
-        <v>15.76683260538533</v>
+        <v>35.86753029260299</v>
       </c>
       <c r="R7">
-        <v>141.901493448468</v>
+        <v>322.807772633427</v>
       </c>
       <c r="S7">
-        <v>0.02259119486927099</v>
+        <v>0.02724544350789112</v>
       </c>
       <c r="T7">
-        <v>0.02259119486927099</v>
+        <v>0.02724544350789113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>73.410133</v>
       </c>
       <c r="I8">
-        <v>0.6512287931422547</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="J8">
-        <v>0.6512287931422548</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>26.025232</v>
       </c>
       <c r="O8">
-        <v>0.4670563296497797</v>
+        <v>0.2518776232723828</v>
       </c>
       <c r="P8">
-        <v>0.4670563296497798</v>
+        <v>0.2518776232723829</v>
       </c>
       <c r="Q8">
         <v>212.2795269417618</v>
@@ -948,10 +948,10 @@
         <v>1910.515742475856</v>
       </c>
       <c r="S8">
-        <v>0.3041605298872771</v>
+        <v>0.1612502955177371</v>
       </c>
       <c r="T8">
-        <v>0.3041605298872772</v>
+        <v>0.1612502955177371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>73.410133</v>
       </c>
       <c r="I9">
-        <v>0.6512287931422547</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="J9">
-        <v>0.6512287931422548</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.103747333333333</v>
+        <v>3.352351333333333</v>
       </c>
       <c r="N9">
-        <v>3.311242</v>
+        <v>10.057054</v>
       </c>
       <c r="O9">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069202</v>
       </c>
       <c r="P9">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069205</v>
       </c>
       <c r="Q9">
-        <v>27.00874617946511</v>
+        <v>82.03218574757578</v>
       </c>
       <c r="R9">
-        <v>243.078715615186</v>
+        <v>738.289671728182</v>
       </c>
       <c r="S9">
-        <v>0.03869894882416446</v>
+        <v>0.06231271750191662</v>
       </c>
       <c r="T9">
-        <v>0.03869894882416447</v>
+        <v>0.06231271750191664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>73.410133</v>
       </c>
       <c r="I10">
-        <v>0.6512287931422547</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="J10">
-        <v>0.6512287931422548</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.890366333333334</v>
+        <v>10.935394</v>
       </c>
       <c r="N10">
-        <v>17.671099</v>
+        <v>32.806182</v>
       </c>
       <c r="O10">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474392</v>
       </c>
       <c r="P10">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474393</v>
       </c>
       <c r="Q10">
-        <v>144.1375253162408</v>
+        <v>267.5895759824674</v>
       </c>
       <c r="R10">
-        <v>1297.237727846167</v>
+        <v>2408.306183842206</v>
       </c>
       <c r="S10">
-        <v>0.2065246079470313</v>
+        <v>0.2032645296806065</v>
       </c>
       <c r="T10">
-        <v>0.2065246079470314</v>
+        <v>0.2032645296806065</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>73.410133</v>
       </c>
       <c r="I11">
-        <v>0.6512287931422547</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="J11">
-        <v>0.6512287931422548</v>
+        <v>0.6401930168419905</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.260419333333334</v>
+        <v>10.01304</v>
       </c>
       <c r="N11">
-        <v>6.781258</v>
+        <v>30.03912</v>
       </c>
       <c r="O11">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966152</v>
       </c>
       <c r="P11">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966153</v>
       </c>
       <c r="Q11">
-        <v>55.31256129859045</v>
+        <v>245.01953271144</v>
       </c>
       <c r="R11">
-        <v>497.813051687314</v>
+        <v>2205.17579440296</v>
       </c>
       <c r="S11">
-        <v>0.07925351161451077</v>
+        <v>0.1861200306338391</v>
       </c>
       <c r="T11">
-        <v>0.07925351161451079</v>
+        <v>0.1861200306338391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3392406666666667</v>
+        <v>3.558094333333333</v>
       </c>
       <c r="H12">
-        <v>1.017722</v>
+        <v>10.674283</v>
       </c>
       <c r="I12">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676512</v>
       </c>
       <c r="J12">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676513</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.644332</v>
+        <v>1.465773</v>
       </c>
       <c r="N12">
-        <v>1.932996</v>
+        <v>4.397319</v>
       </c>
       <c r="O12">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287053</v>
       </c>
       <c r="P12">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287054</v>
       </c>
       <c r="Q12">
-        <v>0.2185836172346667</v>
+        <v>5.215358605252999</v>
       </c>
       <c r="R12">
-        <v>1.967252555112</v>
+        <v>46.93822744727699</v>
       </c>
       <c r="S12">
-        <v>0.0003131932212238903</v>
+        <v>0.003961654373569144</v>
       </c>
       <c r="T12">
-        <v>0.0003131932212238904</v>
+        <v>0.003961654373569145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3392406666666667</v>
+        <v>3.558094333333333</v>
       </c>
       <c r="H13">
-        <v>1.017722</v>
+        <v>10.674283</v>
       </c>
       <c r="I13">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676512</v>
       </c>
       <c r="J13">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676513</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>26.025232</v>
       </c>
       <c r="O13">
-        <v>0.4670563296497797</v>
+        <v>0.2518776232723828</v>
       </c>
       <c r="P13">
-        <v>0.4670563296497798</v>
+        <v>0.2518776232723829</v>
       </c>
       <c r="Q13">
-        <v>2.942939017944889</v>
+        <v>30.86674350096177</v>
       </c>
       <c r="R13">
-        <v>26.486451161504</v>
+        <v>277.800691508656</v>
       </c>
       <c r="S13">
-        <v>0.004216732079724463</v>
+        <v>0.02344678068067193</v>
       </c>
       <c r="T13">
-        <v>0.004216732079724464</v>
+        <v>0.02344678068067194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3392406666666667</v>
+        <v>3.558094333333333</v>
       </c>
       <c r="H14">
-        <v>1.017722</v>
+        <v>10.674283</v>
       </c>
       <c r="I14">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676512</v>
       </c>
       <c r="J14">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676513</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.103747333333333</v>
+        <v>3.352351333333333</v>
       </c>
       <c r="N14">
-        <v>3.311242</v>
+        <v>10.057054</v>
       </c>
       <c r="O14">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069202</v>
       </c>
       <c r="P14">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069205</v>
       </c>
       <c r="Q14">
-        <v>0.3744359811915556</v>
+        <v>11.92798228247578</v>
       </c>
       <c r="R14">
-        <v>3.369923830724</v>
+        <v>107.351840542282</v>
       </c>
       <c r="S14">
-        <v>0.0005365032044721443</v>
+        <v>0.009060650811169501</v>
       </c>
       <c r="T14">
-        <v>0.0005365032044721443</v>
+        <v>0.009060650811169505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3392406666666667</v>
+        <v>3.558094333333333</v>
       </c>
       <c r="H15">
-        <v>1.017722</v>
+        <v>10.674283</v>
       </c>
       <c r="I15">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676512</v>
       </c>
       <c r="J15">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676513</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.890366333333334</v>
+        <v>10.935394</v>
       </c>
       <c r="N15">
-        <v>17.671099</v>
+        <v>32.806182</v>
       </c>
       <c r="O15">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474392</v>
       </c>
       <c r="P15">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474393</v>
       </c>
       <c r="Q15">
-        <v>1.998251801830889</v>
+        <v>38.90916342416733</v>
       </c>
       <c r="R15">
-        <v>17.984266216478</v>
+        <v>350.182470817506</v>
       </c>
       <c r="S15">
-        <v>0.002863155649766615</v>
+        <v>0.02955590767929398</v>
       </c>
       <c r="T15">
-        <v>0.002863155649766615</v>
+        <v>0.02955590767929399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3392406666666667</v>
+        <v>3.558094333333333</v>
       </c>
       <c r="H16">
-        <v>1.017722</v>
+        <v>10.674283</v>
       </c>
       <c r="I16">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676512</v>
       </c>
       <c r="J16">
-        <v>0.009028315884052706</v>
+        <v>0.09308798604676513</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.260419333333334</v>
+        <v>10.01304</v>
       </c>
       <c r="N16">
-        <v>6.781258</v>
+        <v>30.03912</v>
       </c>
       <c r="O16">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966152</v>
       </c>
       <c r="P16">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966153</v>
       </c>
       <c r="Q16">
-        <v>0.7668261615862223</v>
+        <v>35.62734088344</v>
       </c>
       <c r="R16">
-        <v>6.901435454276</v>
+        <v>320.64606795096</v>
       </c>
       <c r="S16">
-        <v>0.001098731728865593</v>
+        <v>0.02706299250206054</v>
       </c>
       <c r="T16">
-        <v>0.001098731728865593</v>
+        <v>0.02706299250206055</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.826194333333333</v>
+        <v>1.877690666666667</v>
       </c>
       <c r="H17">
-        <v>11.478583</v>
+        <v>5.633072</v>
       </c>
       <c r="I17">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="J17">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.644332</v>
+        <v>1.465773</v>
       </c>
       <c r="N17">
-        <v>1.932996</v>
+        <v>4.397319</v>
       </c>
       <c r="O17">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287053</v>
       </c>
       <c r="P17">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287054</v>
       </c>
       <c r="Q17">
-        <v>2.465339447185333</v>
+        <v>2.752268281552</v>
       </c>
       <c r="R17">
-        <v>22.188055024668</v>
+        <v>24.770414533968</v>
       </c>
       <c r="S17">
-        <v>0.003532412962337245</v>
+        <v>0.002090658859750101</v>
       </c>
       <c r="T17">
-        <v>0.003532412962337247</v>
+        <v>0.002090658859750101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.826194333333333</v>
+        <v>1.877690666666667</v>
       </c>
       <c r="H18">
-        <v>11.478583</v>
+        <v>5.633072</v>
       </c>
       <c r="I18">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="J18">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>26.025232</v>
       </c>
       <c r="O18">
-        <v>0.4670563296497797</v>
+        <v>0.2518776232723828</v>
       </c>
       <c r="P18">
-        <v>0.4670563296497798</v>
+        <v>0.2518776232723829</v>
       </c>
       <c r="Q18">
-        <v>33.19253173402844</v>
+        <v>16.28911174141156</v>
       </c>
       <c r="R18">
-        <v>298.732785606256</v>
+        <v>146.602005672704</v>
       </c>
       <c r="S18">
-        <v>0.04755926389120002</v>
+        <v>0.01237342159116767</v>
       </c>
       <c r="T18">
-        <v>0.04755926389120003</v>
+        <v>0.01237342159116767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.826194333333333</v>
+        <v>1.877690666666667</v>
       </c>
       <c r="H19">
-        <v>11.478583</v>
+        <v>5.633072</v>
       </c>
       <c r="I19">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="J19">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.103747333333333</v>
+        <v>3.352351333333333</v>
       </c>
       <c r="N19">
-        <v>3.311242</v>
+        <v>10.057054</v>
       </c>
       <c r="O19">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069202</v>
       </c>
       <c r="P19">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069205</v>
       </c>
       <c r="Q19">
-        <v>4.223151792231779</v>
+        <v>6.294678809987556</v>
       </c>
       <c r="R19">
-        <v>38.008366130086</v>
+        <v>56.65210928988801</v>
       </c>
       <c r="S19">
-        <v>0.006051059682604365</v>
+        <v>0.004781520068952286</v>
       </c>
       <c r="T19">
-        <v>0.006051059682604366</v>
+        <v>0.004781520068952287</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.826194333333333</v>
+        <v>1.877690666666667</v>
       </c>
       <c r="H20">
-        <v>11.478583</v>
+        <v>5.633072</v>
       </c>
       <c r="I20">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="J20">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.890366333333334</v>
+        <v>10.935394</v>
       </c>
       <c r="N20">
-        <v>17.671099</v>
+        <v>32.806182</v>
       </c>
       <c r="O20">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474392</v>
       </c>
       <c r="P20">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474393</v>
       </c>
       <c r="Q20">
-        <v>22.53768628585745</v>
+        <v>20.53328725012267</v>
       </c>
       <c r="R20">
-        <v>202.839176572717</v>
+        <v>184.799585251104</v>
       </c>
       <c r="S20">
-        <v>0.03229267891208504</v>
+        <v>0.01559735262619662</v>
       </c>
       <c r="T20">
-        <v>0.03229267891208505</v>
+        <v>0.01559735262619662</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.826194333333333</v>
+        <v>1.877690666666667</v>
       </c>
       <c r="H21">
-        <v>11.478583</v>
+        <v>5.633072</v>
       </c>
       <c r="I21">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="J21">
-        <v>0.1018276830267179</v>
+        <v>0.04912473537908105</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.260419333333334</v>
+        <v>10.01304</v>
       </c>
       <c r="N21">
-        <v>6.781258</v>
+        <v>30.03912</v>
       </c>
       <c r="O21">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966152</v>
       </c>
       <c r="P21">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966153</v>
       </c>
       <c r="Q21">
-        <v>8.648803644157113</v>
+        <v>18.80139175296</v>
       </c>
       <c r="R21">
-        <v>77.839232797414</v>
+        <v>169.21252577664</v>
       </c>
       <c r="S21">
-        <v>0.01239226757849119</v>
+        <v>0.01428178223301436</v>
       </c>
       <c r="T21">
-        <v>0.01239226757849119</v>
+        <v>0.01428178223301436</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.502039333333334</v>
+        <v>3.648546666666667</v>
       </c>
       <c r="H22">
-        <v>10.506118</v>
+        <v>10.94564</v>
       </c>
       <c r="I22">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="J22">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.644332</v>
+        <v>1.465773</v>
       </c>
       <c r="N22">
-        <v>1.932996</v>
+        <v>4.397319</v>
       </c>
       <c r="O22">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287053</v>
       </c>
       <c r="P22">
-        <v>0.03469010447198725</v>
+        <v>0.04255817041287054</v>
       </c>
       <c r="Q22">
-        <v>2.256476007725334</v>
+        <v>5.34794119324</v>
       </c>
       <c r="R22">
-        <v>20.308284069528</v>
+        <v>48.13147073916</v>
       </c>
       <c r="S22">
-        <v>0.00323314710596636</v>
+        <v>0.004062365835486409</v>
       </c>
       <c r="T22">
-        <v>0.003233147105966361</v>
+        <v>0.00406236583548641</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.502039333333334</v>
+        <v>3.648546666666667</v>
       </c>
       <c r="H23">
-        <v>10.506118</v>
+        <v>10.94564</v>
       </c>
       <c r="I23">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="J23">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>26.025232</v>
       </c>
       <c r="O23">
-        <v>0.4670563296497797</v>
+        <v>0.2518776232723828</v>
       </c>
       <c r="P23">
-        <v>0.4670563296497798</v>
+        <v>0.2518776232723829</v>
       </c>
       <c r="Q23">
-        <v>30.38046204104178</v>
+        <v>31.65142448760889</v>
       </c>
       <c r="R23">
-        <v>273.424158369376</v>
+        <v>284.86282038848</v>
       </c>
       <c r="S23">
-        <v>0.04353004534044722</v>
+        <v>0.02404283458566632</v>
       </c>
       <c r="T23">
-        <v>0.04353004534044722</v>
+        <v>0.02404283458566632</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.502039333333334</v>
+        <v>3.648546666666667</v>
       </c>
       <c r="H24">
-        <v>10.506118</v>
+        <v>10.94564</v>
       </c>
       <c r="I24">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="J24">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.103747333333333</v>
+        <v>3.352351333333333</v>
       </c>
       <c r="N24">
-        <v>3.311242</v>
+        <v>10.057054</v>
       </c>
       <c r="O24">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069202</v>
       </c>
       <c r="P24">
-        <v>0.05942450523023949</v>
+        <v>0.09733426617069205</v>
       </c>
       <c r="Q24">
-        <v>3.865366575395112</v>
+        <v>12.23121028272889</v>
       </c>
       <c r="R24">
-        <v>34.788299178556</v>
+        <v>110.08089254456</v>
       </c>
       <c r="S24">
-        <v>0.005538414197160399</v>
+        <v>0.009290986752437551</v>
       </c>
       <c r="T24">
-        <v>0.005538414197160399</v>
+        <v>0.009290986752437553</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.502039333333334</v>
+        <v>3.648546666666667</v>
       </c>
       <c r="H25">
-        <v>10.506118</v>
+        <v>10.94564</v>
       </c>
       <c r="I25">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="J25">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.890366333333334</v>
+        <v>10.935394</v>
       </c>
       <c r="N25">
-        <v>17.671099</v>
+        <v>32.806182</v>
       </c>
       <c r="O25">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474392</v>
       </c>
       <c r="P25">
-        <v>0.3171306461290295</v>
+        <v>0.3175050716474393</v>
       </c>
       <c r="Q25">
-        <v>20.62829458707578</v>
+        <v>39.89829532738667</v>
       </c>
       <c r="R25">
-        <v>185.654651283682</v>
+        <v>359.08465794648</v>
       </c>
       <c r="S25">
-        <v>0.02955684470691871</v>
+        <v>0.03030726516533124</v>
       </c>
       <c r="T25">
-        <v>0.02955684470691872</v>
+        <v>0.03030726516533125</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.502039333333334</v>
+        <v>3.648546666666667</v>
       </c>
       <c r="H26">
-        <v>10.506118</v>
+        <v>10.94564</v>
       </c>
       <c r="I26">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="J26">
-        <v>0.0932008466154137</v>
+        <v>0.09545442851692375</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.260419333333334</v>
+        <v>10.01304</v>
       </c>
       <c r="N26">
-        <v>6.781258</v>
+        <v>30.03912</v>
       </c>
       <c r="O26">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966152</v>
       </c>
       <c r="P26">
-        <v>0.121698414518964</v>
+        <v>0.2907248684966153</v>
       </c>
       <c r="Q26">
-        <v>7.916077415160446</v>
+        <v>36.5330437152</v>
       </c>
       <c r="R26">
-        <v>71.24469673644401</v>
+        <v>328.7973934368</v>
       </c>
       <c r="S26">
-        <v>0.011342395264921</v>
+        <v>0.02775097617800221</v>
       </c>
       <c r="T26">
-        <v>0.011342395264921</v>
+        <v>0.02775097617800222</v>
       </c>
     </row>
   </sheetData>
